--- a/1 семинар/Шаблон дз.xlsx
+++ b/1 семинар/Шаблон дз.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\полученные файлы\Обучение - Разработчик\Специализация - Аналитик\Вне четверти\GB4623_A_Unit_Economics\1 семинар\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9135"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Обязательно для заполнения" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Урок 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Урок 2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Урок 4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Урок 5" sheetId="5" r:id="rId8"/>
+    <sheet name="Обязательно для заполнения" sheetId="1" r:id="rId1"/>
+    <sheet name="Урок 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Урок 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Урок 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Урок 5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,20 +45,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="IBM Plex Sans"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Продукт: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="IBM Plex Sans"/>
         <b/>
         <i/>
+        <sz val="12"/>
         <color theme="5"/>
-        <sz val="12.0"/>
+        <rFont val="IBM Plex Sans"/>
       </rPr>
       <t>название</t>
     </r>
@@ -172,9 +180,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="IBM Plex Sans"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Текст домашнего задания: 
 Рассчитайте юнит-экономику своего продукта. 
@@ -182,10 +190,10 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="IBM Plex Sans"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>Ниже приведен пример юнит-экономики и метрик. Адаптируйте шаблон под свой набор метрик и зависимостей. Рассчитайте значения метрик для "усредненной" когорты.</t>
     </r>
@@ -271,46 +279,63 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="IBM Plex Sans"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="IBM Plex Sans"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;IBM Plex Sans&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="IBM Plex Sans"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;IBM Plex Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="IBM Plex Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
     </font>
   </fonts>
   <fills count="16">
@@ -318,7 +343,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -406,69 +431,101 @@
     </fill>
   </fills>
   <borders count="34">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -478,6 +535,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -489,6 +547,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -497,19 +557,29 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -524,6 +594,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -538,6 +609,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -552,27 +624,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -582,6 +661,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -596,6 +676,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -610,6 +691,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -624,6 +706,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -638,6 +721,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -652,6 +736,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -666,27 +751,34 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -696,29 +788,41 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -728,257 +832,246 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="83">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="26" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1168,60 +1261,68 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFF4CCCC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="31.25"/>
-    <col customWidth="1" min="3" max="4" width="16.88"/>
-    <col customWidth="1" min="5" max="6" width="31.25"/>
-    <col customWidth="1" min="7" max="7" width="5.5"/>
+    <col min="1" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="12.0" customHeight="1">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1230,75 +1331,80 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="40.5" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="10.5" customHeight="1"/>
-    <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="10.5" customHeight="1"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="100.5" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="100.5" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" ht="126.0" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="126" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" ht="6.0" customHeight="1">
+    <row r="15" spans="1:7" ht="6" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1307,85 +1413,85 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:7" ht="31.5">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" ht="126.75" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+    <row r="17" spans="1:7" ht="126.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" ht="129.0" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+    <row r="19" spans="1:7" ht="129" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="23" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" ht="81.0" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
+    <row r="21" spans="1:7" ht="81" customHeight="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1396,6 +1502,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
@@ -1407,217 +1522,258 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="55.75"/>
-    <col customWidth="1" min="3" max="4" width="58.63"/>
-    <col customWidth="1" min="5" max="5" width="5.5"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="4" width="58.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="59" t="s">
         <v>25</v>
       </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:5" ht="33" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" ht="27.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="36.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+    <row r="7" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="36.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+    <row r="9" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="36.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+    <row r="10" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="36.75" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+    <row r="11" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="36.75" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+    <row r="12" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="36.75" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+    <row r="13" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="24.75" customHeight="1">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A14" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="36.75" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37"/>
+    <row r="15" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="36.75" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+    <row r="16" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" ht="36.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
+    <row r="17" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="14" width="19.13"/>
-    <col customWidth="1" min="15" max="15" width="5.5"/>
+    <col min="1" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="58" t="s">
         <v>33</v>
       </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:15" ht="15">
+      <c r="A3" s="59" t="s">
         <v>34</v>
       </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1632,108 +1788,108 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" ht="87.0" customHeight="1">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:15" ht="87" customHeight="1">
+      <c r="A5" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="46"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="67"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="88.5" customHeight="1">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:15" ht="88.5" customHeight="1">
+      <c r="A6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="50"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" ht="27.75" customHeight="1">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:15" ht="27.75" customHeight="1">
+      <c r="A8" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="46"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="56" t="s">
+    <row r="9" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A9" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="57" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="58" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="46"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" ht="39.0" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:15" ht="39" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1748,9 +1904,9 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:15" ht="39" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1765,9 +1921,9 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" ht="39.0" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:15" ht="39" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1782,9 +1938,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" ht="39.0" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:15" ht="39" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1801,122 +1957,123 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:N5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:N8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="I9:N9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:N6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="21" width="18.88"/>
-    <col customWidth="1" min="22" max="22" width="5.5"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="21" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:22" ht="15">
+      <c r="A3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1938,322 +2095,339 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" ht="40.5" customHeight="1">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="65" t="s">
+      <c r="S5" s="45"/>
+      <c r="T5" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="66"/>
-    </row>
-    <row r="6" ht="54.75" customHeight="1">
-      <c r="B6" s="67" t="s">
+      <c r="U5" s="45"/>
+      <c r="V5" s="24"/>
+    </row>
+    <row r="6" spans="1:22" ht="54.75" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="70" t="s">
+      <c r="O6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="70" t="s">
+      <c r="P6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="66"/>
-    </row>
-    <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
+      <c r="V6" s="24"/>
+    </row>
+    <row r="7" spans="1:22" ht="43.5" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" ht="43.5" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
+    <row r="8" spans="1:22" ht="43.5" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+    <row r="9" spans="1:22" ht="43.5" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" ht="43.5" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
+    <row r="10" spans="1:22" ht="43.5" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" ht="43.5" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
+    <row r="11" spans="1:22" ht="43.5" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
       <c r="V11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="T5:U5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="21" width="15.25"/>
-    <col customWidth="1" min="22" max="22" width="5.5"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:22" ht="15">
+      <c r="A3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2275,9 +2449,9 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2299,9 +2473,9 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2323,9 +2497,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2347,9 +2521,9 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2371,9 +2545,9 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2395,9 +2569,9 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2419,9 +2593,9 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2443,9 +2617,9 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2467,9 +2641,9 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2491,9 +2665,9 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2515,9 +2689,9 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2539,9 +2713,9 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2563,9 +2737,9 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2587,9 +2761,9 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2611,9 +2785,9 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2635,9 +2809,9 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2659,9 +2833,9 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+    <row r="21" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2683,9 +2857,9 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2707,9 +2881,9 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2731,9 +2905,9 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2756,6 +2930,6 @@
       <c r="V24" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>